--- a/hybridOfActiTimeProject/data/ActiTimeTestData.xlsx
+++ b/hybridOfActiTimeProject/data/ActiTimeTestData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="384" yWindow="120" windowWidth="11412" windowHeight="6336" activeTab="4"/>
+    <workbookView xWindow="384" yWindow="120" windowWidth="11412" windowHeight="6336" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="validcreads" sheetId="1" r:id="rId1"/>
@@ -12,14 +12,15 @@
     <sheet name="createuser" sheetId="3" r:id="rId3"/>
     <sheet name="mgr" sheetId="4" r:id="rId4"/>
     <sheet name="customer&amp;projectList" sheetId="5" r:id="rId5"/>
-    <sheet name="Sheet3" sheetId="6" r:id="rId6"/>
+    <sheet name="TestEngg" sheetId="6" r:id="rId6"/>
+    <sheet name="TaskName" sheetId="7" r:id="rId7"/>
   </sheets>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="39">
   <si>
     <t>USERNAME</t>
   </si>
@@ -117,7 +118,25 @@
     <t>ProjectName</t>
   </si>
   <si>
-    <t>Web Application</t>
+    <t>TestEngg</t>
+  </si>
+  <si>
+    <t>xyz</t>
+  </si>
+  <si>
+    <t>Niranjan</t>
+  </si>
+  <si>
+    <t>Talekar</t>
+  </si>
+  <si>
+    <t>Mobile App</t>
+  </si>
+  <si>
+    <t>TaskName</t>
+  </si>
+  <si>
+    <t>Perform Fuctional Testing</t>
   </si>
 </sst>
 </file>
@@ -665,7 +684,7 @@
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection sqref="A1:D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -712,7 +731,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
@@ -734,7 +753,7 @@
         <v>30</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
     </row>
   </sheetData>
@@ -744,12 +763,77 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:D2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="11.109375" customWidth="1"/>
+    <col min="2" max="2" width="12" customWidth="1"/>
+    <col min="3" max="3" width="10.88671875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>35</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:A2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="27.5546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" s="5" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2" s="4" t="s">
+        <v>38</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+</worksheet>
 </file>